--- a/PNL.xlsx
+++ b/PNL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Downloads/PNL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E700B1D9-35CF-1046-8ED6-B7E4B9AF741D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A834F6-1C8D-E342-98F0-A3504FD23C02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{06C2047E-A20D-7B41-A100-9F165F6715E9}"/>
   </bookViews>
@@ -3960,8 +3960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA31C75E-3792-5A48-80D5-B790838227C3}">
   <dimension ref="A1:D1301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A918" workbookViewId="0">
-      <selection activeCell="J926" sqref="J926"/>
+    <sheetView tabSelected="1" topLeftCell="A903" workbookViewId="0">
+      <selection activeCell="C913" sqref="C913:C931"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
@@ -14920,9 +14920,7 @@
       <c r="B913" s="1">
         <v>0</v>
       </c>
-      <c r="C913" s="1">
-        <v>20000</v>
-      </c>
+      <c r="C913" s="1"/>
       <c r="D913" s="1"/>
     </row>
     <row r="914" spans="1:4">
@@ -14932,9 +14930,7 @@
       <c r="B914" s="1">
         <v>0</v>
       </c>
-      <c r="C914" s="1">
-        <v>20000</v>
-      </c>
+      <c r="C914" s="1"/>
       <c r="D914" s="1"/>
     </row>
     <row r="915" spans="1:4">
@@ -14944,9 +14940,7 @@
       <c r="B915" s="1">
         <v>0</v>
       </c>
-      <c r="C915" s="1">
-        <v>20000</v>
-      </c>
+      <c r="C915" s="1"/>
       <c r="D915" s="1"/>
     </row>
     <row r="916" spans="1:4">
@@ -14956,9 +14950,7 @@
       <c r="B916" s="1">
         <v>0</v>
       </c>
-      <c r="C916" s="1">
-        <v>20000</v>
-      </c>
+      <c r="C916" s="1"/>
       <c r="D916" s="1"/>
     </row>
     <row r="917" spans="1:4">
@@ -14968,9 +14960,7 @@
       <c r="B917" s="1">
         <v>0</v>
       </c>
-      <c r="C917" s="1">
-        <v>20000</v>
-      </c>
+      <c r="C917" s="1"/>
       <c r="D917" s="1"/>
     </row>
     <row r="918" spans="1:4">
@@ -14980,9 +14970,7 @@
       <c r="B918" s="1">
         <v>0</v>
       </c>
-      <c r="C918" s="1">
-        <v>20000</v>
-      </c>
+      <c r="C918" s="1"/>
       <c r="D918" s="1"/>
     </row>
     <row r="919" spans="1:4">
@@ -14992,9 +14980,7 @@
       <c r="B919" s="1">
         <v>0</v>
       </c>
-      <c r="C919" s="1">
-        <v>20000</v>
-      </c>
+      <c r="C919" s="1"/>
       <c r="D919" s="1"/>
     </row>
     <row r="920" spans="1:4">
@@ -15004,9 +14990,7 @@
       <c r="B920" s="1">
         <v>0</v>
       </c>
-      <c r="C920" s="1">
-        <v>20000</v>
-      </c>
+      <c r="C920" s="1"/>
       <c r="D920" s="1"/>
     </row>
     <row r="921" spans="1:4">
@@ -15016,9 +15000,7 @@
       <c r="B921" s="1">
         <v>0</v>
       </c>
-      <c r="C921" s="1">
-        <v>20000</v>
-      </c>
+      <c r="C921" s="1"/>
       <c r="D921" s="1"/>
     </row>
     <row r="922" spans="1:4">
@@ -15028,9 +15010,7 @@
       <c r="B922" s="1">
         <v>0</v>
       </c>
-      <c r="C922" s="1">
-        <v>20000</v>
-      </c>
+      <c r="C922" s="1"/>
       <c r="D922" s="1"/>
     </row>
     <row r="923" spans="1:4">
@@ -15040,9 +15020,7 @@
       <c r="B923" s="1">
         <v>0</v>
       </c>
-      <c r="C923" s="1">
-        <v>20000</v>
-      </c>
+      <c r="C923" s="1"/>
       <c r="D923" s="1"/>
     </row>
     <row r="924" spans="1:4">
@@ -15052,9 +15030,7 @@
       <c r="B924" s="1">
         <v>0</v>
       </c>
-      <c r="C924" s="1">
-        <v>20000</v>
-      </c>
+      <c r="C924" s="1"/>
       <c r="D924" s="1"/>
     </row>
     <row r="925" spans="1:4">
@@ -15064,9 +15040,7 @@
       <c r="B925" s="1">
         <v>0</v>
       </c>
-      <c r="C925" s="1">
-        <v>20000</v>
-      </c>
+      <c r="C925" s="1"/>
       <c r="D925" s="1"/>
     </row>
     <row r="926" spans="1:4">
@@ -15076,9 +15050,7 @@
       <c r="B926" s="1">
         <v>0</v>
       </c>
-      <c r="C926" s="1">
-        <v>20000</v>
-      </c>
+      <c r="C926" s="1"/>
       <c r="D926" s="1"/>
     </row>
     <row r="927" spans="1:4">
@@ -15088,9 +15060,7 @@
       <c r="B927" s="1">
         <v>0</v>
       </c>
-      <c r="C927" s="1">
-        <v>20000</v>
-      </c>
+      <c r="C927" s="1"/>
       <c r="D927" s="1"/>
     </row>
     <row r="928" spans="1:4">
@@ -15100,9 +15070,7 @@
       <c r="B928" s="1">
         <v>0</v>
       </c>
-      <c r="C928" s="1">
-        <v>20000</v>
-      </c>
+      <c r="C928" s="1"/>
       <c r="D928" s="1"/>
     </row>
     <row r="929" spans="1:4">
@@ -15112,9 +15080,7 @@
       <c r="B929" s="1">
         <v>0</v>
       </c>
-      <c r="C929" s="1">
-        <v>20000</v>
-      </c>
+      <c r="C929" s="1"/>
       <c r="D929" s="1"/>
     </row>
     <row r="930" spans="1:4">
@@ -15124,9 +15090,7 @@
       <c r="B930" s="1">
         <v>0</v>
       </c>
-      <c r="C930" s="1">
-        <v>20000</v>
-      </c>
+      <c r="C930" s="1"/>
       <c r="D930" s="1"/>
     </row>
     <row r="931" spans="1:4">
@@ -15136,9 +15100,7 @@
       <c r="B931" s="1">
         <v>0</v>
       </c>
-      <c r="C931" s="1">
-        <v>20000</v>
-      </c>
+      <c r="C931" s="1"/>
       <c r="D931" s="1"/>
     </row>
     <row r="932" spans="1:4">
